--- a/biology/Médecine/François_Miramond_de_Laroquette/François_Miramond_de_Laroquette.xlsx
+++ b/biology/Médecine/François_Miramond_de_Laroquette/François_Miramond_de_Laroquette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Miramond_de_Laroquette</t>
+          <t>François_Miramond_de_Laroquette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Miramond de Laroquette (Riom, 10 septembre 1871 - Paris, 26 juillet 1927) est un médecin militaire français, auteur de nombreuses publications et brevets.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Miramond_de_Laroquette</t>
+          <t>François_Miramond_de_Laroquette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie, François, Auguste Miramond de Laroquette est né le 10 septembre 1871 à Riom dans le Puy-de-Dôme, François pour l’état civil, mais il ne sera connu que sous le prénom de Francis sa vie durant.
 Quelques jours avant ses 20 ans, il devient « Santard » c’est-à-dire élève de l’école de santé militaire de Lyon et signe un engagement volontaire dans l’armée pour trois ans. Il soutient sa thèse en octobre 1894 et il est nommé médecin stagiaire à l’école d’application du Val de Grâce à Paris. En août 1895 il est médecin aide major de 2e classe au 91e régiment d’infanterie à Charleville-Mézières. Il passe avec succès l’examen de médecin auxiliaire le 17 juillet 1897 et dès le 1er août est promu médecin aide major de 1re classe. Sa première affectation algérienne en novembre 1897 est à l’ambulance de Sidi-Aïssa.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Miramond_de_Laroquette</t>
+          <t>François_Miramond_de_Laroquette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications, communications, brevets et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contribution à l’étude des exostoses sous unguéales (structure et pathogénie). Thèse 1895 Lyon
 Étude de la vaccine et variolisation en Algérie
@@ -745,7 +761,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Miramond_de_Laroquette</t>
+          <t>François_Miramond_de_Laroquette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -763,7 +779,9 @@
           <t>Campagnes et décorations du Docteur Miramond de Laroquette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">32 ans de service effectif, dont 14 ans, 4 mois, 28 jours de campagne
 Du 3 décembre 1897 au 6 mai 1898 : Opérations militaires en Algérie
@@ -803,7 +821,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Miramond_de_Laroquette</t>
+          <t>François_Miramond_de_Laroquette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -821,7 +839,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Petitdant B. : Docteur François Miramond de Laroquette (1871-1927) 1re partie
 Société Internationale d’Histoire de la Médecine.
